--- a/device_info.xlsx
+++ b/device_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="153">
   <si>
     <t>device_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -854,10 +854,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -940,18 +940,18 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A12" si="0">$A$2</f>
+        <f t="shared" ref="A4" si="0">$A$2</f>
         <v>智能大气压力计</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B12" si="1">$B$2</f>
+        <f t="shared" ref="B4" si="1">$B$2</f>
         <v>ZPJ107</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" ref="C4:C12" si="2">$C$2</f>
+        <f t="shared" ref="C4" si="2">$C$2</f>
         <v>发动机排放检测部</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -979,340 +979,33 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>智能大气压力计</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ZPJ107</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>发动机排放检测部</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>150</v>
-      </c>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>智能大气压力计</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ZPJ107</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>发动机排放检测部</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>智能大气压力计</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ZPJ107</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>发动机排放检测部</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>智能大气压力计</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ZPJ107</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>发动机排放检测部</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>智能大气压力计</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ZPJ107</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>发动机排放检测部</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>智能大气压力计</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ZPJ107</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>发动机排放检测部</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>智能大气压力计</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ZPJ107</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>发动机排放检测部</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>智能大气压力计</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ZPJ107</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>发动机排放检测部</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D14" s="1"/>
@@ -1323,84 +1016,44 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D23" s="1"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1743,6 +1396,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
